--- a/02-Vocabularies/RPaM/RPaM-mapping to MS-dataModels.xlsx
+++ b/02-Vocabularies/RPaM/RPaM-mapping to MS-dataModels.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\02-Vocabularies\RPaM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\RPaM-Ontology1\02-Vocabularies\RPaM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
-    <sheet name="ES" sheetId="1" r:id="rId2"/>
+    <sheet name="RPaM" sheetId="3" r:id="rId2"/>
+    <sheet name="ES" sheetId="1" r:id="rId3"/>
+    <sheet name="AU" sheetId="4" r:id="rId4"/>
+    <sheet name="BE" sheetId="5" r:id="rId5"/>
+    <sheet name="NL" sheetId="6" r:id="rId6"/>
+    <sheet name="FI" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="175">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -301,13 +306,262 @@
   </si>
   <si>
     <t>The fact that the Person is Natural or Legal can be inferred from the ID and other properties. However we have added a 'Type' property to Mandator and Mandatee, so we can specify whether the Person is Natural or Legal</t>
+  </si>
+  <si>
+    <t>Mandate/Annotation</t>
+  </si>
+  <si>
+    <t>Mandate/StatusInformationService</t>
+  </si>
+  <si>
+    <t>Mandate/Intermediary</t>
+  </si>
+  <si>
+    <t>Mandate/Properties</t>
+  </si>
+  <si>
+    <t>Mandate/Signature</t>
+  </si>
+  <si>
+    <t>Mandate/ID</t>
+  </si>
+  <si>
+    <t>xs:ID</t>
+  </si>
+  <si>
+    <t>Unique identifier of the electronic power of attorney.</t>
+  </si>
+  <si>
+    <t>Short name of the power of attorney/description</t>
+  </si>
+  <si>
+    <t>xs:token</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Description</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>The current status of the power of attorney can be obtained from the Internet address given in this element. This internet address MUST be set when issuing the power of attorney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal data of the representative. This can be both a natural and a legal person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal data of the power representatives. This can be both a natural and a legal person. </t>
+  </si>
+  <si>
+    <t>Personal data of the intermediary. This can only be a natural person.</t>
+  </si>
+  <si>
+    <t>Optional global properties of the Power</t>
+  </si>
+  <si>
+    <t>The electronic signature.</t>
+  </si>
+  <si>
+    <t>xs:anyURI</t>
+  </si>
+  <si>
+    <t>Mandate/Representative/PhysicalPerson</t>
+  </si>
+  <si>
+    <t>Mandate/Representative/CorporatePerson</t>
+  </si>
+  <si>
+    <t>Mandate/Mandator/PhysicalPerson</t>
+  </si>
+  <si>
+    <t>Mandate/Mandator/CorporateBody</t>
+  </si>
+  <si>
+    <t>Mandate/Issued/Place</t>
+  </si>
+  <si>
+    <t>Mandate/Issued/Date</t>
+  </si>
+  <si>
+    <t>Mandate/Issued/Time</t>
+  </si>
+  <si>
+    <t>Time (OPTIONAL) of the issuing.</t>
+  </si>
+  <si>
+    <t>Date (OPTIONAL) of the issuing.</t>
+  </si>
+  <si>
+    <t>Place (OPTIONAL) of the issuing.</t>
+  </si>
+  <si>
+    <t>md:DateType</t>
+  </si>
+  <si>
+    <t>CCYY-MM-DD</t>
+  </si>
+  <si>
+    <t>xs:time</t>
+  </si>
+  <si>
+    <t>hh:mm:ss</t>
+  </si>
+  <si>
+    <t>Mandate/Properties/SubstitutionAllowed</t>
+  </si>
+  <si>
+    <t>SHOULD indicate if this power is legally substitutable.</t>
+  </si>
+  <si>
+    <t>Mandate/Properties/Other</t>
+  </si>
+  <si>
+    <t>Other global properties</t>
+  </si>
+  <si>
+    <t>Description of the mandate.</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/TextualDescription</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/ParametrisedDescription</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/References</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/References/MandateID</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/ConstraintsGroup</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/ConstraintsGroup/TimeConstraint</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/ConstraintsGroup/CollectiveConstraint</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/ConstraintsGroup/TransactionLimit</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/ConstraintsGroup/AnyConstraints</t>
+  </si>
+  <si>
+    <t>Group of constraints applicable for a mandate content</t>
+  </si>
+  <si>
+    <t>Relation with other electronic authorisations.</t>
+  </si>
+  <si>
+    <t>A time limit for a power may be given.</t>
+  </si>
+  <si>
+    <t>May set a transaction limit for the actions and legal transactions associated with the Power</t>
+  </si>
+  <si>
+    <t>OPTIONAL further restrictions on the power of attorney.</t>
+  </si>
+  <si>
+    <t>Parameterised description of a mandate's content.</t>
+  </si>
+  <si>
+    <t>The ID od the Mandate which is referenced by the TextualDescription.</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/ConstraintsGroup/CollectiveConstraint/PhysicalPerson</t>
+  </si>
+  <si>
+    <t>Mandate/SimpleMandateContent/ConstraintsGroup/CollectiveConstraint/CorporateBody</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/IdentityLink</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/X509SignatureCertificate</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/OAFriendlyName</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/RedirectURL</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/ReferenceValue</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/Filters/MandateIdentifiers/MandateIdentifier</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/Target/Type</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/Target/Value</t>
+  </si>
+  <si>
+    <t>MandateIssueRequest/SessionID</t>
+  </si>
+  <si>
+    <t>Request to MIS. Must include the identity of the representative in Base64 coding.</t>
+  </si>
+  <si>
+    <t>This is an optional element. If present, it must include the qualified signature certificate of the representative in Base64 encoding.</t>
+  </si>
+  <si>
+    <t>This is a mandatory element and must contain the URL to which the representative is to be referred once he / she has selected the power of attorney in the MIS service. This may, for example, be a servlet that continues the login process after the full select.</t>
+  </si>
+  <si>
+    <t>This is an obligatory element and contains a value that concatenates the signature of the representative.</t>
+  </si>
+  <si>
+    <t>This is an optional element and defines the name of the application that will be displayed to the representative when selecting the power.</t>
+  </si>
+  <si>
+    <t>Mandate/ValidityPeriod</t>
+  </si>
+  <si>
+    <t>Mandate/Status</t>
+  </si>
+  <si>
+    <t>Mandant (Mandator)</t>
+  </si>
+  <si>
+    <t>Mandataire (Mandatee)</t>
+  </si>
+  <si>
+    <t>Need for a Person identification policy (eg.: controlled list of authorities and schemes).</t>
+  </si>
+  <si>
+    <t>Need for a non-Person Agent policy identifier (eg.: controlled Agent issuer authority and schemes).</t>
+  </si>
+  <si>
+    <t>INFORMATION REQUIREMENT SOURCE</t>
+  </si>
+  <si>
+    <t>Information Requirement Source</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +580,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -427,11 +688,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,7 +768,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,13 +784,59 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,7 +852,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,7 +1120,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
@@ -759,580 +1134,2539 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N20"/>
+  <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="12" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="F11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="F14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="D17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="E17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="E18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="D20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="E20" s="23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>85</v>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="H3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="77.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="14">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="22"/>
+      <c r="O20" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="30">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="30">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="30">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="30">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="30">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="30">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="18">
+        <v>1</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="30">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="18">
+        <v>1</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="17"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="19"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="35">
+        <v>1</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02-Vocabularies/RPaM/RPaM-mapping to MS-dataModels.xlsx
+++ b/02-Vocabularies/RPaM/RPaM-mapping to MS-dataModels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -592,7 +592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,18 +778,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -829,10 +823,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,25 +1160,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1192,417 +1199,417 @@
       <c r="G4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="23" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="42" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="20" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
@@ -1622,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1644,22 +1651,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -1685,7 +1692,7 @@
       <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1703,571 +1710,571 @@
       <c r="N4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="10">
         <v>1</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="15"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="O6" s="19"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="14">
         <v>1</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="19" t="s">
+      <c r="N7" s="13"/>
+      <c r="O7" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18">
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="19"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="19"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="5">
         <v>1</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="20" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="20" t="s">
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="20"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="20" t="s">
+      <c r="N18" s="13"/>
+      <c r="O18" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="24" t="s">
+      <c r="N20" s="18"/>
+      <c r="O20" s="20" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2285,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -2306,22 +2313,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="4"/>
       <c r="N2" s="7"/>
     </row>
@@ -2347,7 +2354,7 @@
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2365,897 +2372,897 @@
       <c r="M3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="31">
+      <c r="E4" s="28"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="27">
         <v>1</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="38"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="30" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="19"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="20"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="26">
         <v>1</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="20"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="30">
+      <c r="F8" s="13"/>
+      <c r="G8" s="26">
         <v>1</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="20"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="20"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="20"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="19"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="19"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="30">
+      <c r="F13" s="13"/>
+      <c r="G13" s="26">
         <v>1</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="19"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="19"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L15" s="5">
         <v>1</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="20"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="30">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="26">
         <v>1</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="20"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="30">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="26">
         <v>1</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="20"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="17" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="30">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="26">
         <v>1</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18" t="s">
+      <c r="K18" s="13"/>
+      <c r="L18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="20"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="30">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="26">
         <v>1</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18" t="s">
+      <c r="K19" s="13"/>
+      <c r="L19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="20"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="30" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="19"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="30">
+      <c r="F21" s="13"/>
+      <c r="G21" s="26">
         <v>1</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="19"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="17" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="26">
         <v>1</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17" t="s">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="14">
         <v>1</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="19"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="26">
         <v>1</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="14">
         <v>1</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="19"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="17" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="30" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="19"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="19"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="17" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="30" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="19"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="30" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17" t="s">
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="19"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="17" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="30" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17" t="s">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="17"/>
-      <c r="N28" s="19"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="17" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="30" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="17" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="30" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="19"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="17" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="19"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="17" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="30" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="19"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="17" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="30" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="19"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="17" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="30" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="19"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="17" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="30" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="19"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="17" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="30" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="19"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="17" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="30" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="19"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="22" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="35">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="31">
         <v>1</v>
       </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="36"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3289,22 +3296,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="4"/>
       <c r="N2" s="7"/>
     </row>
@@ -3330,7 +3337,7 @@
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -3348,153 +3355,153 @@
       <c r="M3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="12" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="15"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="20"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="5">
         <v>1</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="16" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3516,22 +3523,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="4"/>
       <c r="N2" s="7"/>
     </row>
@@ -3557,7 +3564,7 @@
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -3575,7 +3582,7 @@
       <c r="M3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3599,22 +3606,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="4"/>
       <c r="N2" s="7"/>
     </row>
@@ -3640,7 +3647,7 @@
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -3658,7 +3665,7 @@
       <c r="M3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="23" t="s">
         <v>60</v>
       </c>
     </row>

--- a/02-Vocabularies/RPaM/RPaM-mapping to MS-dataModels.xlsx
+++ b/02-Vocabularies/RPaM/RPaM-mapping to MS-dataModels.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
     <sheet name="RPaM" sheetId="3" r:id="rId2"/>
     <sheet name="ES" sheetId="1" r:id="rId3"/>
-    <sheet name="AU" sheetId="4" r:id="rId4"/>
+    <sheet name="AT" sheetId="4" r:id="rId4"/>
     <sheet name="BE" sheetId="5" r:id="rId5"/>
     <sheet name="NL" sheetId="6" r:id="rId6"/>
     <sheet name="FI" sheetId="7" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="228">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -536,18 +536,12 @@
     <t>Need for a non-Person Agent policy identifier (eg.: controlled Agent issuer authority and schemes).</t>
   </si>
   <si>
-    <t>INFORMATION REQUIREMENT SOURCE</t>
-  </si>
-  <si>
     <t>Information Requirement Source</t>
   </si>
   <si>
     <t>ES</t>
   </si>
   <si>
-    <t>AU</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
@@ -555,13 +549,179 @@
   </si>
   <si>
     <t>FI</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/hasPower/Power/Identifier</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/hasPower/Power/GeospatialConstraint</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/hasPower/Power/FinancialTheresholdConstraint</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/hasPower/Power/CurrentDelegationLevel</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>RPaM Request Model</t>
+  </si>
+  <si>
+    <t>Name (MANDATORY)</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
+    <t>Legal ID</t>
+  </si>
+  <si>
+    <t>Citizen service number.</t>
+  </si>
+  <si>
+    <t>Dutch national passport or one accepted by the State of the Netherlands</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>email address</t>
+  </si>
+  <si>
+    <t>Telephone number</t>
+  </si>
+  <si>
+    <t>Issue date</t>
+  </si>
+  <si>
+    <t>Pseudonym</t>
+  </si>
+  <si>
+    <t>Issuer</t>
+  </si>
+  <si>
+    <t>Mandate Register</t>
+  </si>
+  <si>
+    <t>Legal representative</t>
+  </si>
+  <si>
+    <t>Mandate Administrator</t>
+  </si>
+  <si>
+    <t>Mandate</t>
+  </si>
+  <si>
+    <t>Legal subject</t>
+  </si>
+  <si>
+    <t>The Legal Subject who has been authorised by the legal representative to act on his behalf</t>
+  </si>
+  <si>
+    <t>The legal representative(s) of the Service Customer</t>
+  </si>
+  <si>
+    <t>Who has been authorised by the legal representative and who administers the Mandates concerning the Service Customer</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the Mandatee</t>
+  </si>
+  <si>
+    <t>Qualified certificate</t>
+  </si>
+  <si>
+    <t>EER national driving licence</t>
+  </si>
+  <si>
+    <t>EER national identification card</t>
+  </si>
+  <si>
+    <t>ID for foreigners and refugees that encompasses an ID picture</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Verification / Request</t>
+  </si>
+  <si>
+    <t>Bank account</t>
+  </si>
+  <si>
+    <t>The registration of the unique characteristics of the legal representative MUST be verified on the basis of a successful bank transfer from a personal bank account, the holder of which must be the same person as the Applicant and for which, when the bank account was opened, the financial institution duly verified the identity of the account holder on the basis of a valid identity document</t>
+  </si>
+  <si>
+    <t>Either a Legal Person or Natural Person</t>
+  </si>
+  <si>
+    <t>Ensure the adequate identification of representatives of the Service Customer/Chamber of Commerce; the adequate identification of the Service Customer/Chamber of Commerce or the mandated Legal Person; ensure that the information supplied by the Service Provider has been verified to be factually correct.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>The Participant MUST have a functioning process to revoke Identification Means.</t>
+  </si>
+  <si>
+    <t>Mandate Administrator roles</t>
+  </si>
+  <si>
+    <t>The Mandate Administrator MAY only be authorised to register himself and to register authorisations that are at the same or a lower level than his own authorisation level.</t>
+  </si>
+  <si>
+    <t>Electronic request</t>
+  </si>
+  <si>
+    <t>the Service Customer MUST be identified based on the authorization of the Mandate Administrator; the Mandate Administrator MUST be authorised based on his Identification Means from the Scheme and in compliance with the appropriate Level of Assurance in the Mandate Register.</t>
+  </si>
+  <si>
+    <t>Identification of the applicant</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/hasPower/Power/powerOf/Mandator/ID;
+eMandateRequest/Mandate/hasPower/Power/assignedTo/Mandatee/ID</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the Mandator/Mandatee</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Power Type</t>
+  </si>
+  <si>
+    <t>Eg.: delegation power</t>
+  </si>
+  <si>
+    <t>Eg.: confirmed, out of date, cancelled, etc.</t>
+  </si>
+  <si>
+    <t>Legal Entity</t>
+  </si>
+  <si>
+    <t>Natural Person</t>
+  </si>
+  <si>
+    <t>AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +751,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +789,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,16 +1002,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,7 +1019,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,487 +1352,498 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L24"/>
+  <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="12" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="13" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="40" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="35" t="s">
+      <c r="J4" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="L4" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="M4" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="I7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="43"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>48</v>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="37"/>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="I11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="43" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="L13" s="35"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="43" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="I17" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>44</v>
-      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="D19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="H19" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="I19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="37"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="F20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="I20" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="37"/>
       <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="37"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>168</v>
-      </c>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1629,13 +1851,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="77.28515625" customWidth="1"/>
@@ -1651,15 +1873,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="38" t="s">
         <v>15</v>
       </c>
@@ -2290,984 +2512,1003 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N38"/>
+  <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="39"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="27">
+      <c r="F4" s="28"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="27">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="21" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="21" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="21" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="26">
+      <c r="G7" s="13"/>
+      <c r="H7" s="26">
         <v>1</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="21" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="26">
+      <c r="G8" s="13"/>
+      <c r="H8" s="26">
         <v>1</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="21" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="21" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="21" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="21" t="s">
+      <c r="N11" s="13"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="26">
+      <c r="G13" s="13"/>
+      <c r="H13" s="26">
         <v>1</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="M13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21" t="s">
+      <c r="N13" s="13"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
+      <c r="K14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>1</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="N15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="13" t="s">
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="26">
+      <c r="G16" s="13"/>
+      <c r="H16" s="26">
         <v>1</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="K16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="13" t="s">
+      <c r="N16" s="13"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="26">
+      <c r="G17" s="13"/>
+      <c r="H17" s="26">
         <v>1</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="K17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="L17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="13" t="s">
+      <c r="N17" s="13"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="26">
+      <c r="G18" s="13"/>
+      <c r="H18" s="26">
         <v>1</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="13"/>
+      <c r="K18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="13"/>
+      <c r="M18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="13" t="s">
+      <c r="N18" s="13"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="26">
+      <c r="G19" s="13"/>
+      <c r="H19" s="26">
         <v>1</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="13"/>
+      <c r="M19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="13" t="s">
+      <c r="N19" s="13"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="13" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="26">
+      <c r="G21" s="13"/>
+      <c r="H21" s="26">
         <v>1</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="13" t="s">
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="26">
+      <c r="H22" s="26">
         <v>1</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="13"/>
+      <c r="K22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="L22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="14">
+      <c r="M22" s="14">
         <v>1</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="13" t="s">
+      <c r="N22" s="13"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="26">
+      <c r="H23" s="26">
         <v>1</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="L23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="14">
+      <c r="M23" s="14">
         <v>1</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="13" t="s">
+      <c r="N23" s="13"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="13"/>
+      <c r="H24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="15"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="13" t="s">
+      <c r="N24" s="13"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="13"/>
+      <c r="H25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="15"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="13" t="s">
+      <c r="N25" s="13"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="13"/>
+      <c r="H26" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="13" t="s">
+      <c r="N26" s="13"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="L27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="13" t="s">
+      <c r="N27" s="13"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="13"/>
+      <c r="H28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="L28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="13" t="s">
+      <c r="N28" s="13"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="13" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="J30" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="K30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="L30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="M30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="13" t="s">
+      <c r="N30" s="13"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="13" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="13" t="s">
+      <c r="L32" s="13"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="13"/>
+      <c r="H33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="13" t="s">
+      <c r="L33" s="13"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="13" t="s">
+      <c r="L34" s="13"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="13"/>
+      <c r="H35" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="15"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="13" t="s">
+      <c r="L35" s="13"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="15"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="13" t="s">
+      <c r="I36" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" s="21"/>
+      <c r="M36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" s="21"/>
+      <c r="O36" s="46"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="13"/>
+      <c r="H37" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="18" t="s">
+      <c r="L37" s="13"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="17"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="E38" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="31">
+      <c r="G38" s="18"/>
+      <c r="H38" s="31">
         <v>1</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
-      <c r="N38" s="32"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3275,238 +3516,239 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N8"/>
+  <dimension ref="B2:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="39"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>1</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18" t="s">
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="J8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3514,166 +3756,997 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N3"/>
+  <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:N1048576"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.140625" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="39"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N3"/>
+  <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="77.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="39"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>